--- a/cv/marketable_tech_xp.xlsx
+++ b/cv/marketable_tech_xp.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -933,256 +933,256 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7">
+        <v>72</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0.02</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">

--- a/cv/marketable_tech_xp.xlsx
+++ b/cv/marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>rare</t>
   </si>
@@ -163,9 +163,6 @@
     <t>(LG2) how many candidates</t>
   </si>
   <si>
-    <t>longevity of domain / skill</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -289,6 +286,22 @@
   </si>
   <si>
     <t>web+db apps across industries #PWM,spring…</t>
+  </si>
+  <si>
+    <t>very helpful</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>not too plain but 
+can be repetitive</t>
+  </si>
+  <si>
+    <t>helps keep engegement #$ is primary factor</t>
+  </si>
+  <si>
+    <t>longevity^churn of domain+skill</t>
   </si>
 </sst>
 </file>
@@ -348,7 +361,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,8 +398,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -409,12 +428,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -467,6 +523,20 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -769,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P21"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,575 +865,603 @@
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="18" t="s">
+    <row r="1" spans="2:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="19" t="s">
+      <c r="L1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="N1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" s="24" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="E4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0.02</v>
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>26</v>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>10</v>
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7">
+        <v>71</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0.02</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="N11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="O11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="6" t="s">
+      <c r="O14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
@@ -1382,16 +1480,36 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="O21" s="15"/>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/cv/marketable_tech_xp.xlsx
+++ b/cv/marketable_tech_xp.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -72,9 +71,6 @@
     <t>infeasible</t>
   </si>
   <si>
-    <t>IV traction, without GC</t>
-  </si>
-  <si>
     <t>good std skillset</t>
   </si>
   <si>
@@ -242,9 +238,6 @@
 tructure</t>
   </si>
   <si>
-    <t>conclusion { xp</t>
-  </si>
-  <si>
     <t>%%IV strength 1-5</t>
   </si>
   <si>
@@ -302,17 +295,24 @@
   </si>
   <si>
     <t>longevity^churn of domain+skill</t>
+  </si>
+  <si>
+    <t>IV traction, 
+without GC</t>
+  </si>
+  <si>
+    <t>conclusion from personal xp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +320,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -841,78 +841,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="74.25" customHeight="1">
       <c r="B1" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="31.5" customHeight="1">
       <c r="B2" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
@@ -921,25 +921,25 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" s="24" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" s="24" customFormat="1" ht="3.75" customHeight="1">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -956,21 +956,21 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="7">
         <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -991,19 +991,19 @@
         <v>9</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -1036,19 +1036,19 @@
         <v>13</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="36.75" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1056,16 +1056,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>0</v>
@@ -1086,39 +1086,39 @@
         <v>13</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="49.5">
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -1127,36 +1127,36 @@
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="49.5">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
@@ -1171,51 +1171,51 @@
         <v>0.02</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="49.5">
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>10</v>
@@ -1224,19 +1224,19 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="6" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1253,21 +1253,21 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="33">
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -1285,22 +1285,22 @@
         <v>1</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
@@ -1327,25 +1327,25 @@
         <v>6</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="33">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>15</v>
@@ -1364,33 +1364,33 @@
         <v>10</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="33">
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7">
         <v>4</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -1401,23 +1401,23 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1434,7 +1434,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1454,16 +1454,16 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1480,7 +1480,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1497,7 +1497,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="F22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -1521,19 +1521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
